--- a/step_by_step_mlp(inertia).xlsx
+++ b/step_by_step_mlp(inertia).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Step_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="48">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -147,7 +147,16 @@
     <t xml:space="preserve">Layer 1 (Sum(Delta*Weight) (do NOT NEED actually, because no layers before this one)</t>
   </si>
   <si>
-    <t xml:space="preserve">Back propagate (update weights)</t>
+    <t xml:space="preserve">Back propagate (update weights with inertia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (previous delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (previous delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (previous delta-weights)</t>
   </si>
   <si>
     <t xml:space="preserve">Layer 1 (delta-weights)</t>
@@ -166,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,8 +204,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +253,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -286,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,11 +325,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,23 +341,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,12 +357,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,7 +405,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE6E905"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -428,17 +466,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M80" activeCellId="0" sqref="M80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.1"/>
@@ -852,7 +890,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,419 +903,174 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="0" t="n">
         <f aca="false">B42*D33</f>
         <v>-0.530796992035244</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="0" t="n">
         <f aca="false">H29*B45</f>
         <v>-0.530796992035244</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="0" t="n">
         <f aca="false">H30*B45</f>
         <v>-1.06159398407049</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="0" t="n">
         <f aca="false">H31*B45</f>
         <v>-2.12318796814098</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="0" t="n">
         <f aca="false">B48*D23</f>
         <v>-0.119699558134715</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="0" t="n">
         <f aca="false">B49*D24</f>
         <v>-0.366303094488909</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="0" t="n">
         <f aca="false">B50*D25</f>
         <v>-1.19744516743904</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="0" t="n">
         <f aca="false">F17*B53+G17*B54+H17*B55</f>
         <v>-3.83893903867132</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="0" t="n">
         <f aca="false">F18*B53+G18*B54+H18*B55</f>
         <v>1.78918812411974</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="8" t="n">
+      <c r="B62" s="3" t="n">
         <f aca="false">B58*D12</f>
         <v>-3.51315500848731</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="8" t="n">
+      <c r="B63" s="3" t="n">
         <f aca="false">B59*D13</f>
         <v>0.545738154833346</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="0" t="n">
         <f aca="false">F7*B62+G7*B63</f>
         <v>4.05889316332066</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="0" t="n">
         <f aca="false">F8*B62+G8*B63</f>
         <v>-2.42167869882062</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -1290,26 +1083,16 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="B70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -1318,31 +1101,16 @@
       <c r="B71" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="9" t="n">
-        <f aca="false">-($B$39*B2*B62)</f>
-        <v>0.00702631001697462</v>
-      </c>
-      <c r="D71" s="9" t="n">
-        <f aca="false">-($B$39*B3*B62)</f>
-        <v>0.0175657750424366</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9" t="n">
-        <f aca="false">C71+C7</f>
-        <v>-0.992973689983025</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <f aca="false">D71+D7</f>
-        <v>1.01756577504244</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="C71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -1351,59 +1119,36 @@
       <c r="B72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="9" t="n">
-        <f aca="false">-($B$39*B2*B63)</f>
-        <v>-0.00109147630966669</v>
-      </c>
-      <c r="D72" s="9" t="n">
-        <f aca="false">-($B$39*B3*B63)</f>
-        <v>-0.00272869077416673</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="9" t="n">
-        <f aca="false">C72+C8</f>
-        <v>0.998908523690333</v>
-      </c>
-      <c r="I72" s="9" t="n">
-        <f aca="false">D72+D8</f>
-        <v>1.99727130922583</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="C72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="B74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1413,30 +1158,15 @@
         <v>11</v>
       </c>
       <c r="C75" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B53)</f>
-        <v>0.000348699909895248</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B53)</f>
-        <v>0.000997880880963243</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="9" t="n">
-        <f aca="false">C75+C17</f>
-        <v>-0.999651300090105</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <f aca="false">D75+D17</f>
-        <v>2.00099788088096</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1446,30 +1176,15 @@
         <v>13</v>
       </c>
       <c r="C76" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B54)</f>
-        <v>0.00106708711404666</v>
+        <v>0</v>
       </c>
       <c r="D76" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B54)</f>
-        <v>0.00305370262283488</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="9" t="n">
-        <f aca="false">C76+C18</f>
-        <v>1.00106708711405</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <f aca="false">D76+D18</f>
-        <v>1.00305370262283</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1479,55 +1194,34 @@
         <v>21</v>
       </c>
       <c r="C77" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B55)</f>
-        <v>0.003488308799942</v>
+        <v>0</v>
       </c>
       <c r="D77" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B55)</f>
-        <v>0.00998255680479999</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9" t="n">
-        <f aca="false">C77+C19</f>
-        <v>3.00348830879994</v>
-      </c>
-      <c r="I77" s="9" t="n">
-        <f aca="false">D77+D19</f>
-        <v>-1.9900174431952</v>
-      </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="H79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1540,41 +1234,265 @@
         <v>25</v>
       </c>
       <c r="D80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C23)</f>
-        <v>0.00467128763134758</v>
+        <v>0</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C24)</f>
-        <v>0.00429568570067348</v>
+        <v>0</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C25)</f>
-        <v>-0.00350493043444114</v>
-      </c>
-      <c r="H80" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="F83" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
+        <v>0.00281052400678985</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B62)+$B$40*D71</f>
+        <v>0.00702631001697462</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">C84+C7</f>
+        <v>-0.99718947599321</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">D84+D7</f>
+        <v>1.00702631001697</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="B85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
+        <v>-0.000436590523866677</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B63)+$B$40*D72</f>
+        <v>-0.00109147630966669</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">C85+C8</f>
+        <v>0.999563409476133</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">D85+D8</f>
+        <v>1.99890852369033</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="F87" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="C88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
+        <v>0.0001394799639581</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B53)+$B$40*D75</f>
+        <v>0.000399152352385298</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">C88+C17</f>
+        <v>-0.999860520036042</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <f aca="false">D88+D17</f>
+        <v>2.00039915235239</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
+        <v>0.000426834845618664</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B54)+$B$40*D76</f>
+        <v>0.00122148104913395</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">C89+C18</f>
+        <v>1.00042683484562</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <f aca="false">D89+D18</f>
+        <v>1.00122148104913</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
+        <v>0.0013953235199768</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B55)+$B$40*D77</f>
+        <v>0.00399302272191999</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">C90+C19</f>
+        <v>3.00139532351998</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">D90+D19</f>
+        <v>-1.99600697727808</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="H92" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="0" t="n">
-        <f aca="false">D80+D29</f>
-        <v>1.00467128763135</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <f aca="false">E80+E29</f>
-        <v>2.00429568570067</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <f aca="false">F80+F29</f>
-        <v>3.99649506956556</v>
+      <c r="D93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>
+        <v>0.00186851505253903</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C24)+$B$40*E80</f>
+        <v>0.00171827428026939</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C25)+$B$40*F80</f>
+        <v>-0.00140197217377645</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">D93+D29</f>
+        <v>1.00186851505254</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">E93+E29</f>
+        <v>2.00171827428027</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <f aca="false">F93+F29</f>
+        <v>3.99859802782622</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A5:H5"/>
@@ -1587,11 +1505,14 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A69:H69"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="F74:G74"/>
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="H92:J92"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1608,15 +1529,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
@@ -1688,20 +1611,20 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">Step_1!H71</f>
-        <v>-0.992973689983025</v>
+        <f aca="false">Step_1!H84</f>
+        <v>-0.99718947599321</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">Step_1!I71</f>
-        <v>1.01756577504244</v>
+        <f aca="false">Step_1!I84</f>
+        <v>1.00702631001697</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">C7</f>
-        <v>-0.992973689983025</v>
+        <v>-0.99718947599321</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">C8</f>
-        <v>0.998908523690333</v>
+        <v>0.999563409476133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,20 +1635,20 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">Step_1!H72</f>
-        <v>0.998908523690333</v>
+        <f aca="false">Step_1!H85</f>
+        <v>0.999563409476133</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">Step_1!I72</f>
-        <v>1.99727130922583</v>
+        <f aca="false">Step_1!I85</f>
+        <v>1.99890852369033</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">D7</f>
-        <v>1.01756577504244</v>
+        <v>1.00702631001697</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">D8</f>
-        <v>1.99727130922583</v>
+        <v>1.99890852369033</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,15 +1668,15 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">C7*B2+D7*B3</f>
-        <v>0.310188149524613</v>
+        <v>0.304075259809845</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">TANH(B12)</f>
-        <v>0.300608254158304</v>
+        <v>0.29503759051222</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">1-C12*C12</f>
-        <v>0.909634677531896</v>
+        <v>0.912952820184744</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,15 +1685,15 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">C8*B2+D8*B3</f>
-        <v>1.19841735935098</v>
+        <v>1.19936694374039</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">TANH(B13)</f>
-        <v>0.833171232618558</v>
+        <v>0.833461410260422</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">1-C13*C13</f>
-        <v>0.305825697136872</v>
+        <v>0.305342077606708</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,24 +1713,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">Step_1!H75</f>
-        <v>-0.999651300090105</v>
+        <f aca="false">Step_1!H88</f>
+        <v>-0.999860520036042</v>
       </c>
       <c r="D17" s="0" t="n">
-        <f aca="false">Step_1!I75</f>
-        <v>2.00099788088096</v>
+        <f aca="false">Step_1!I88</f>
+        <v>2.00039915235239</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">C17</f>
-        <v>-0.999651300090105</v>
+        <v>-0.999860520036042</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">C18</f>
-        <v>1.00106708711405</v>
+        <v>1.00042683484562</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">C19</f>
-        <v>3.00348830879994</v>
+        <v>3.00139532351998</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,24 +1741,24 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">Step_1!H76</f>
-        <v>1.00106708711405</v>
+        <f aca="false">Step_1!H89</f>
+        <v>1.00042683484562</v>
       </c>
       <c r="D18" s="0" t="n">
-        <f aca="false">Step_1!I76</f>
-        <v>1.00305370262283</v>
+        <f aca="false">Step_1!I89</f>
+        <v>1.00122148104913</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">D17</f>
-        <v>2.00099788088096</v>
+        <v>2.00039915235239</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">D18</f>
-        <v>1.00305370262283</v>
+        <v>1.00122148104913</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">D19</f>
-        <v>-1.9900174431952</v>
+        <v>-1.99600697727808</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,12 +1769,12 @@
         <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">Step_1!H77</f>
-        <v>3.00348830879994</v>
+        <f aca="false">Step_1!H90</f>
+        <v>3.00139532351998</v>
       </c>
       <c r="D19" s="0" t="n">
-        <f aca="false">Step_1!I77</f>
-        <v>-1.9900174431952</v>
+        <f aca="false">Step_1!I90</f>
+        <v>-1.99600697727808</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,15 +1801,15 @@
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">C17*C12+D17*C13</f>
-        <v>1.36667043879355</v>
+        <v>1.37225905992364</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">TANH(B23)</f>
-        <v>0.877931162567454</v>
+        <v>0.879206012377303</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">1-C23*C23</f>
-        <v>0.229236873792959</v>
+        <v>0.226996787799602</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,15 +1818,15 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">C18*C12+D18*C13</f>
-        <v>1.13664451914957</v>
+        <v>1.12964299041486</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">TANH(B24)</f>
-        <v>0.813281111854509</v>
+        <v>0.810897040987206</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">1-C24*C24</f>
-        <v>0.338573833100693</v>
+        <v>0.342445988918193</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,15 +1835,15 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">C19*C12+D19*C13</f>
-        <v>-0.755151909186148</v>
+        <v>-0.778070345745852</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">TANH(B25)</f>
-        <v>-0.638212456699465</v>
+        <v>-0.651597739310895</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">1-C25*C25</f>
-        <v>0.592684860113634</v>
+        <v>0.575420386124931</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,32 +1867,32 @@
         <v>25</v>
       </c>
       <c r="D29" s="0" t="n">
-        <f aca="false">Step_1!K80</f>
-        <v>1.00467128763135</v>
+        <f aca="false">Step_1!K93</f>
+        <v>1.00186851505254</v>
       </c>
       <c r="E29" s="0" t="n">
-        <f aca="false">Step_1!L80</f>
-        <v>2.00429568570067</v>
+        <f aca="false">Step_1!L93</f>
+        <v>2.00171827428027</v>
       </c>
       <c r="F29" s="0" t="n">
-        <f aca="false">Step_1!M80</f>
-        <v>3.99649506956556</v>
+        <f aca="false">Step_1!M93</f>
+        <v>3.99859802782622</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">D29</f>
-        <v>1.00467128763135</v>
+        <v>1.00186851505254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="n">
         <f aca="false">E29</f>
-        <v>2.00429568570067</v>
+        <v>2.00171827428027</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H31" s="0" t="n">
         <f aca="false">F29</f>
-        <v>3.99649506956556</v>
+        <v>3.99859802782622</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,15 +1912,15 @@
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">D29*C23+E29*C24+F29*C25</f>
-        <v>-0.0385248812345642</v>
+        <v>-0.10144118779497</v>
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">TANH(B33)</f>
-        <v>-0.0385058334301466</v>
+        <v>-0.101094660165135</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">1-C33*C33</f>
-        <v>0.99851730079185</v>
+        <v>0.989779869686096</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +1964,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,423 +1973,178 @@
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">C33-B36</f>
-        <v>-0.438505833430147</v>
+        <v>-0.501094660165135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="0" t="n">
         <f aca="false">B42*D33</f>
-        <v>-0.437855661178151</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+        <v>-0.495973407438646</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="0" t="n">
         <f aca="false">H29*B45</f>
-        <v>-0.439901010912528</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+        <v>-0.496900141216104</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="0" t="n">
         <f aca="false">H30*B45</f>
-        <v>-0.877592212658983</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+        <v>-0.992799033226992</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="0" t="n">
         <f aca="false">H31*B45</f>
-        <v>-1.74988799107985</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+        <v>-1.98319828883842</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="0" t="n">
         <f aca="false">B48*D23</f>
-        <v>-0.10084153251995</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+        <v>-0.112794735913225</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="0" t="n">
         <f aca="false">B49*D24</f>
-        <v>-0.297129759339271</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+        <v>-0.339980046730443</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="0" t="n">
         <f aca="false">B50*D25</f>
-        <v>-1.03713211920769</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+        <v>-1.14117272512571</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="0" t="n">
         <f aca="false">F17*B53+G17*B54+H17*B55</f>
-        <v>-3.31165464831121</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+        <v>-3.65245663927453</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="0" t="n">
         <f aca="false">F18*B53+G18*B54+H18*B55</f>
-        <v>1.5640902099794</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+        <v>1.71175890160512</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="8" t="n">
+      <c r="B62" s="3" t="n">
         <f aca="false">B58*D12</f>
-        <v>-3.01239590811357</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+        <v>-3.33452058942817</v>
+      </c>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="8" t="n">
+      <c r="B63" s="3" t="n">
         <f aca="false">B59*D13</f>
-        <v>0.478338978851908</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+        <v>0.522672019377885</v>
+      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="0" t="n">
         <f aca="false">F7*B62+G7*B63</f>
-        <v>3.4690467637578</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+        <v>3.84759266498758</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="0" t="n">
         <f aca="false">F8*B62+G8*B63</f>
-        <v>-2.10993825842895</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+        <v>-2.31317641021858</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -2479,26 +2157,16 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="B70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -2507,31 +2175,18 @@
       <c r="B71" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="9" t="n">
-        <f aca="false">-($B$39*B2*B62)</f>
-        <v>0.00602479181622714</v>
-      </c>
-      <c r="D71" s="9" t="n">
-        <f aca="false">-($B$39*B3*B62)</f>
-        <v>0.0150619795405679</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9" t="n">
-        <f aca="false">C71+C7</f>
-        <v>-0.986948898166798</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <f aca="false">D71+D7</f>
-        <v>1.032627754583</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="C71" s="0" t="n">
+        <f aca="false">Step_1!C84</f>
+        <v>0.00281052400678985</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">Step_1!D84</f>
+        <v>0.00702631001697462</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -2540,59 +2195,38 @@
       <c r="B72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="9" t="n">
-        <f aca="false">-($B$39*B2*B63)</f>
-        <v>-0.000956677957703815</v>
-      </c>
-      <c r="D72" s="9" t="n">
-        <f aca="false">-($B$39*B3*B63)</f>
-        <v>-0.00239169489425954</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="9" t="n">
-        <f aca="false">C72+C8</f>
-        <v>0.99795184573263</v>
-      </c>
-      <c r="I72" s="9" t="n">
-        <f aca="false">D72+D8</f>
-        <v>1.99487961433157</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="C72" s="0" t="n">
+        <f aca="false">Step_1!C85</f>
+        <v>-0.000436590523866677</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <f aca="false">Step_1!D85</f>
+        <v>-0.00109147630966669</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="B74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -2602,30 +2236,17 @@
         <v>11</v>
       </c>
       <c r="C75" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B53)</f>
-        <v>0.000303137970374701</v>
+        <f aca="false">Step_1!C88</f>
+        <v>0.0001394799639581</v>
       </c>
       <c r="D75" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B53)</f>
-        <v>0.000840182639487912</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="9" t="n">
-        <f aca="false">C75+C17</f>
-        <v>-0.99934816211973</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <f aca="false">D75+D17</f>
-        <v>2.00183806352045</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+        <f aca="false">Step_1!D88</f>
+        <v>0.000399152352385298</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -2635,30 +2256,17 @@
         <v>13</v>
       </c>
       <c r="C76" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B54)</f>
-        <v>0.000893196582134554</v>
+        <f aca="false">Step_1!C89</f>
+        <v>0.000426834845618664</v>
       </c>
       <c r="D76" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B54)</f>
-        <v>0.00247559967836356</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="9" t="n">
-        <f aca="false">C76+C18</f>
-        <v>1.00196028369618</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <f aca="false">D76+D18</f>
-        <v>1.0055293023012</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+        <f aca="false">Step_1!D89</f>
+        <v>0.00122148104913395</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -2668,55 +2276,36 @@
         <v>21</v>
       </c>
       <c r="C77" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B55)</f>
-        <v>0.00311770475686525</v>
+        <f aca="false">Step_1!C90</f>
+        <v>0.0013953235199768</v>
       </c>
       <c r="D77" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B55)</f>
-        <v>0.00864108646148566</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9" t="n">
-        <f aca="false">C77+C19</f>
-        <v>3.00660601355681</v>
-      </c>
-      <c r="I77" s="9" t="n">
-        <f aca="false">D77+D19</f>
-        <v>-1.98137635673371</v>
-      </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+        <f aca="false">Step_1!D90</f>
+        <v>0.00399302272191999</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="H79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -2729,41 +2318,274 @@
         <v>25</v>
       </c>
       <c r="D80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C23)</f>
-        <v>0.00384407129654875</v>
+        <f aca="false">Step_1!D93</f>
+        <v>0.00186851505253903</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C24)</f>
-        <v>0.00356099738954757</v>
+        <f aca="false">Step_1!E93</f>
+        <v>0.00171827428026939</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C25)</f>
-        <v>-0.00279444937200276</v>
-      </c>
-      <c r="H80" s="0" t="s">
+        <f aca="false">Step_1!F93</f>
+        <v>-0.00140197217377645</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="17" t="n">
+        <f aca="false">$B40</f>
+        <v>0.6</v>
+      </c>
+      <c r="B82" s="18" t="n">
+        <f aca="false">B62</f>
+        <v>-3.33452058942817</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="F83" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
+        <v>0.00435393087561644</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B62)+$B$40*D71</f>
+        <v>0.0108848271890411</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">C84+C7</f>
+        <v>-0.992835545117594</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">D84+D7</f>
+        <v>1.01791113720602</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="B85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
+        <v>-0.000680091929822314</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B63)+$B$40*D72</f>
+        <v>-0.00170022982455578</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">C85+C8</f>
+        <v>0.998883317546311</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">D85+D8</f>
+        <v>1.99720829386578</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="F87" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="C88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
+        <v>0.00021680272680006</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B53)+$B$40*D75</f>
+        <v>0.000615531650087931</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">C88+C17</f>
+        <v>-0.999643717309242</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <f aca="false">D88+D17</f>
+        <v>2.00101468400247</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
+        <v>0.000657328482609526</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B54)+$B$40*D76</f>
+        <v>0.00186632962631381</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">C89+C18</f>
+        <v>1.00108416332823</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <f aca="false">D89+D18</f>
+        <v>1.00308781067545</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
+        <v>0.00218394951670349</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B55)+$B$40*D77</f>
+        <v>0.006200307348488</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">C90+C19</f>
+        <v>3.00357927303668</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">D90+D19</f>
+        <v>-1.98980666992959</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="H92" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="0" t="n">
-        <f aca="false">D80+D29</f>
-        <v>1.0085153589279</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <f aca="false">E80+E29</f>
-        <v>2.00785668309022</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <f aca="false">F80+F29</f>
-        <v>3.99370062019356</v>
+      <c r="D93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>
+        <v>0.00286536023872068</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C24)+$B$40*E80</f>
+        <v>0.00263969804216299</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C25)+$B$40*F80</f>
+        <v>-0.00213388390844725</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">D93+D29</f>
+        <v>1.00473387529126</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">E93+E29</f>
+        <v>2.00435797232243</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <f aca="false">F93+F29</f>
+        <v>3.99646414391778</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A5:H5"/>
@@ -2776,11 +2598,14 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A69:H69"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="F74:G74"/>
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="H92:J92"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2797,15 +2622,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M66" activeCellId="0" sqref="M66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K77" activeCellId="0" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,20 +2702,20 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">Step_2!H71</f>
-        <v>-0.986948898166798</v>
+        <f aca="false">Step_2!H84</f>
+        <v>-0.992835545117594</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">Step_2!I71</f>
-        <v>1.032627754583</v>
+        <f aca="false">Step_2!I84</f>
+        <v>1.01791113720602</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">C7</f>
-        <v>-0.986948898166798</v>
+        <v>-0.992835545117594</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">C8</f>
-        <v>0.99795184573263</v>
+        <v>0.998883317546311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,20 +2726,20 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">Step_2!H72</f>
-        <v>0.99795184573263</v>
+        <f aca="false">Step_2!H85</f>
+        <v>0.998883317546311</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">Step_2!I72</f>
-        <v>1.99487961433157</v>
+        <f aca="false">Step_2!I85</f>
+        <v>1.99720829386578</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">D7</f>
-        <v>1.032627754583</v>
+        <v>1.01791113720602</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">D8</f>
-        <v>1.99487961433157</v>
+        <v>1.99720829386578</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,15 +2759,15 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">C7*B2+D7*B3</f>
-        <v>0.318924097658142</v>
+        <v>0.310388459579489</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">TANH(B12)</f>
-        <v>0.30853376074837</v>
+        <v>0.300790452157015</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">1-C12*C12</f>
-        <v>0.904806918478467</v>
+        <v>0.909525103891179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,15 +2776,15 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">C8*B2+D8*B3</f>
-        <v>1.19703017631231</v>
+        <v>1.19838081044215</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">TANH(B13)</f>
-        <v>0.832746505788424</v>
+        <v>0.833160054682655</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">1-C13*C13</f>
-        <v>0.30653325709717</v>
+        <v>0.305844323281195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,24 +2804,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">Step_2!H75</f>
-        <v>-0.99934816211973</v>
+        <f aca="false">Step_2!H88</f>
+        <v>-0.999643717309242</v>
       </c>
       <c r="D17" s="0" t="n">
-        <f aca="false">Step_2!I75</f>
-        <v>2.00183806352045</v>
+        <f aca="false">Step_2!I88</f>
+        <v>2.00101468400247</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">C17</f>
-        <v>-0.99934816211973</v>
+        <v>-0.999643717309242</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">C18</f>
-        <v>1.00196028369618</v>
+        <v>1.00108416332823</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">C19</f>
-        <v>3.00660601355681</v>
+        <v>3.00357927303668</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,24 +2832,24 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">Step_2!H76</f>
-        <v>1.00196028369618</v>
+        <f aca="false">Step_2!H89</f>
+        <v>1.00108416332823</v>
       </c>
       <c r="D18" s="0" t="n">
-        <f aca="false">Step_2!I76</f>
-        <v>1.0055293023012</v>
+        <f aca="false">Step_2!I89</f>
+        <v>1.00308781067545</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">D17</f>
-        <v>2.00183806352045</v>
+        <v>2.00101468400247</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">D18</f>
-        <v>1.0055293023012</v>
+        <v>1.00308781067545</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">D19</f>
-        <v>-1.98137635673371</v>
+        <v>-1.98980666992959</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,12 +2860,12 @@
         <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">Step_2!H77</f>
-        <v>3.00660601355681</v>
+        <f aca="false">Step_2!H90</f>
+        <v>3.00357927303668</v>
       </c>
       <c r="D19" s="0" t="n">
-        <f aca="false">Step_2!I77</f>
-        <v>-1.98137635673371</v>
+        <f aca="false">Step_2!I90</f>
+        <v>-1.98980666992959</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,15 +2892,15 @@
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">C17*C12+D17*C13</f>
-        <v>1.35869100579515</v>
+        <v>1.36648221781893</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">TANH(B23)</f>
-        <v>0.876089117135297</v>
+        <v>0.877888008249122</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">1-C23*C23</f>
-        <v>0.232467858837097</v>
+        <v>0.22931264497239</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,15 +2909,15 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">C18*C12+D18*C13</f>
-        <v>1.14648958740848</v>
+        <v>1.13684925332859</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">TANH(B24)</f>
-        <v>0.816587811409749</v>
+        <v>0.813350417949386</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">1-C24*C24</f>
-        <v>0.333184346257036</v>
+        <v>0.338461097621559</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,15 +2926,15 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">C19*C12+D19*C13</f>
-        <v>-0.722344777270451</v>
+        <v>-0.75437946630031</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">TANH(B25)</f>
-        <v>-0.618359611091596</v>
+        <v>-0.63775441578059</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">1-C25*C25</f>
-        <v>0.617631391370651</v>
+        <v>0.593269305152359</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,32 +2958,32 @@
         <v>25</v>
       </c>
       <c r="D29" s="0" t="n">
-        <f aca="false">Step_2!K80</f>
-        <v>1.0085153589279</v>
+        <f aca="false">Step_2!K93</f>
+        <v>1.00473387529126</v>
       </c>
       <c r="E29" s="0" t="n">
-        <f aca="false">Step_2!L80</f>
-        <v>2.00785668309022</v>
+        <f aca="false">Step_2!L93</f>
+        <v>2.00435797232243</v>
       </c>
       <c r="F29" s="0" t="n">
-        <f aca="false">Step_2!M80</f>
-        <v>3.99370062019356</v>
+        <f aca="false">Step_2!M93</f>
+        <v>3.99646414391778</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">D29</f>
-        <v>1.0085153589279</v>
+        <v>1.00473387529126</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="n">
         <f aca="false">E29</f>
-        <v>2.00785668309022</v>
+        <v>2.00435797232243</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H31" s="0" t="n">
         <f aca="false">F29</f>
-        <v>3.99370062019356</v>
+        <v>3.99646414391778</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,15 +3003,15 @@
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">D29*C23+E29*C24+F29*C25</f>
-        <v>0.0535974625704574</v>
+        <v>-0.0364734401838556</v>
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">TANH(B33)</f>
-        <v>0.0535461985467916</v>
+        <v>-0.0364572751025474</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">1-C33*C33</f>
-        <v>0.997132804621188</v>
+        <v>0.998670867092097</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,7 +3055,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,423 +3064,178 @@
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">C33-B36</f>
-        <v>-0.346453801453208</v>
+        <v>-0.436457275102547</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="0" t="n">
         <f aca="false">B42*D33</f>
-        <v>-0.34546045071471</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+        <v>-0.435877165375315</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="0" t="n">
         <f aca="false">H29*B45</f>
-        <v>-0.348402170447938</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+        <v>-0.43794055351851</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="0" t="n">
         <f aca="false">H30*B45</f>
-        <v>-0.69363507471089</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+        <v>-0.873653871373316</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="0" t="n">
         <f aca="false">H31*B45</f>
-        <v>-1.37966561627168</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+        <v>-1.74196746257497</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="0" t="n">
         <f aca="false">B48*D23</f>
-        <v>-0.0809923065782294</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+        <v>-0.100425306668002</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="0" t="n">
         <f aca="false">B49*D24</f>
-        <v>-0.231108348908498</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+        <v>-0.295697848246337</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="0" t="n">
         <f aca="false">B50*D25</f>
-        <v>-0.852124794204125</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+        <v>-1.03345582611987</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="0" t="n">
         <f aca="false">F17*B53+G17*B54+H17*B55</f>
-        <v>-2.7126254046671</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+        <v>-3.29969540507275</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="0" t="n">
         <f aca="false">F18*B53+G18*B54+H18*B55</f>
-        <v>1.29386022122807</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+        <v>1.55881387538393</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="8" t="n">
+      <c r="B62" s="3" t="n">
         <f aca="false">B58*D12</f>
-        <v>-2.45440223338325</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+        <v>-3.00115580610804</v>
+      </c>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="8" t="n">
+      <c r="B63" s="3" t="n">
         <f aca="false">B59*D13</f>
-        <v>0.396611187841506</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+        <v>0.476754374838134</v>
+      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="0" t="n">
         <f aca="false">F7*B62+G7*B63</f>
-        <v>2.81816844684037</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+        <v>3.45587615233314</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="0" t="n">
         <f aca="false">F8*B62+G8*B63</f>
-        <v>-1.7432922936612</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+        <v>-2.10273212796436</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -3666,26 +3248,16 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="B70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -3694,31 +3266,18 @@
       <c r="B71" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="9" t="n">
-        <f aca="false">-($B$39*B2*B62)</f>
-        <v>0.00490880446676649</v>
-      </c>
-      <c r="D71" s="9" t="n">
-        <f aca="false">-($B$39*B3*B62)</f>
-        <v>0.0122720111669162</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9" t="n">
-        <f aca="false">C71+C7</f>
-        <v>-0.982040093700032</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <f aca="false">D71+D7</f>
-        <v>1.04489976574992</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="C71" s="0" t="n">
+        <f aca="false">Step_2!C84</f>
+        <v>0.00435393087561644</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">Step_2!D84</f>
+        <v>0.0108848271890411</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -3727,59 +3286,38 @@
       <c r="B72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="9" t="n">
-        <f aca="false">-($B$39*B2*B63)</f>
-        <v>-0.000793222375683012</v>
-      </c>
-      <c r="D72" s="9" t="n">
-        <f aca="false">-($B$39*B3*B63)</f>
-        <v>-0.00198305593920753</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="9" t="n">
-        <f aca="false">C72+C8</f>
-        <v>0.997158623356946</v>
-      </c>
-      <c r="I72" s="9" t="n">
-        <f aca="false">D72+D8</f>
-        <v>1.99289655839237</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="C72" s="0" t="n">
+        <f aca="false">Step_2!C85</f>
+        <v>-0.000680091929822314</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <f aca="false">Step_2!D85</f>
+        <v>-0.00170022982455578</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="B74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -3789,30 +3327,17 @@
         <v>11</v>
       </c>
       <c r="C75" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B53)</f>
-        <v>0.000249888609402661</v>
+        <f aca="false">Step_2!C88</f>
+        <v>0.00021680272680006</v>
       </c>
       <c r="D75" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B53)</f>
-        <v>0.000674460602987654</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="9" t="n">
-        <f aca="false">C75+C17</f>
-        <v>-0.999098273510327</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <f aca="false">D75+D17</f>
-        <v>2.00251252412344</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+        <f aca="false">Step_2!D88</f>
+        <v>0.000615531650087931</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -3822,30 +3347,17 @@
         <v>13</v>
       </c>
       <c r="C76" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B54)</f>
-        <v>0.000713047280290856</v>
+        <f aca="false">Step_2!C89</f>
+        <v>0.000657328482609526</v>
       </c>
       <c r="D76" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B54)</f>
-        <v>0.00192454670012084</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="9" t="n">
-        <f aca="false">C76+C18</f>
-        <v>1.00267333097647</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <f aca="false">D76+D18</f>
-        <v>1.00745384900132</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+        <f aca="false">Step_2!D89</f>
+        <v>0.00186632962631381</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -3855,55 +3367,36 @@
         <v>21</v>
       </c>
       <c r="C77" s="0" t="n">
-        <f aca="false">-($B$39*$C$12*B55)</f>
-        <v>0.0026290926738273</v>
+        <f aca="false">Step_2!C90</f>
+        <v>0.00218394951670349</v>
       </c>
       <c r="D77" s="0" t="n">
-        <f aca="false">-($B$39*$C$13*B55)</f>
-        <v>0.00709603944869165</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9" t="n">
-        <f aca="false">C77+C19</f>
-        <v>3.00923510623063</v>
-      </c>
-      <c r="I77" s="9" t="n">
-        <f aca="false">D77+D19</f>
-        <v>-1.97428031728502</v>
-      </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+        <f aca="false">Step_2!D90</f>
+        <v>0.006200307348488</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="H79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -3916,41 +3409,268 @@
         <v>25</v>
       </c>
       <c r="D80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C23)</f>
-        <v>0.00302654141271812</v>
+        <f aca="false">Step_2!D93</f>
+        <v>0.00286536023872068</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C24)</f>
-        <v>0.0028209879337775</v>
+        <f aca="false">Step_2!E93</f>
+        <v>0.00263969804216299</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">-($B$39*$B$45*C25)</f>
-        <v>-0.00213618789951475</v>
-      </c>
-      <c r="H80" s="0" t="s">
+        <f aca="false">Step_2!F93</f>
+        <v>-0.00213388390844725</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="F83" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
+        <v>0.0050132831702563</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B62)+$B$40*D71</f>
+        <v>0.0125332079256407</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">C84+C7</f>
+        <v>-0.987822261947338</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">D84+D7</f>
+        <v>1.03044434513166</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="B85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
+        <v>-0.000789458657763896</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*B3*B63)+$B$40*D72</f>
+        <v>-0.00197364664440974</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">C85+C8</f>
+        <v>0.998093858888547</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">D85+D8</f>
+        <v>1.99523464722137</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="F87" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="C88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
+        <v>0.000250909529682736</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B53)+$B$40*D75</f>
+        <v>0.000704000406032898</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">C88+C17</f>
+        <v>-0.999392807779559</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <f aca="false">D88+D17</f>
+        <v>2.00171868440851</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
+        <v>0.000750169447469204</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B54)+$B$40*D76</f>
+        <v>0.00210525231744613</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">C89+C18</f>
+        <v>1.0018343327757</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <f aca="false">D89+D18</f>
+        <v>1.00519306299289</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
+        <v>0.00255378429091368</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$C$13*B55)+$B$40*D77</f>
+        <v>0.00716432085950135</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">C90+C19</f>
+        <v>3.00613305732759</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">D90+D19</f>
+        <v>-1.98264234907009</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="H92" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="0" t="n">
-        <f aca="false">D80+D29</f>
-        <v>1.01154190034061</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <f aca="false">E80+E29</f>
-        <v>2.010677671024</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <f aca="false">F80+F29</f>
-        <v>3.99156443229404</v>
+      <c r="D93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>
+        <v>0.00324982148944284</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C24)+$B$40*E80</f>
+        <v>0.00300190232382822</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">(1-$B$40)*-($B$39*$B$45*C25)+$B$40*F80</f>
+        <v>-0.00239226069289248</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">D93+D29</f>
+        <v>1.0079836967807</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">E93+E29</f>
+        <v>2.00735987464626</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <f aca="false">F93+F29</f>
+        <v>3.99407188322488</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A5:H5"/>
@@ -3963,11 +3683,14 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A69:H69"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="F74:G74"/>
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="H92:J92"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/step_by_step_mlp(inertia).xlsx
+++ b/step_by_step_mlp(inertia).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Step_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -468,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K77" activeCellId="0" sqref="K77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/step_by_step_mlp(inertia).xlsx
+++ b/step_by_step_mlp(inertia).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -51,121 +51,154 @@
     <t xml:space="preserve">Layer 1 (weights)</t>
   </si>
   <si>
+    <t xml:space="preserve">Transposed weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (output)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derevative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (output)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (weights, final)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (output, final)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back propagate (gradients)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momentum (inertia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (Sum(Delta*Weight) for layer 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (Sum(Delta*Weight) for layer 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (Sum(Delta*Weight) (do NOT NEED actually, because no layers before this one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back propagate (update weights with inertia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (previous delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (previous delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (previous delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (new weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (new weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (new weights)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (output)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derevative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (output)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (weights, final)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (output, final)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back propagate (gradients)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momentum (inertia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (Sum(Delta*Weight) for layer 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (Sum(Delta*Weight) for layer 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (Sum(Delta*Weight) (do NOT NEED actually, because no layers before this one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back propagate (update weights with inertia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (previous delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (previous delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (previous delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (delta-weights)</t>
   </si>
 </sst>
 </file>
@@ -308,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,8 +366,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -375,6 +408,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -469,7 +506,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+      <selection pane="topLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -533,7 +570,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -631,7 +668,7 @@
         <v>0.305019996207409</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -775,7 +812,7 @@
         <v>0.563984529588071</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1096,10 +1133,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -1114,10 +1151,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0</v>
@@ -1142,7 +1179,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B74" s="12"/>
       <c r="E74" s="13"/>
@@ -1152,10 +1189,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0</v>
@@ -1170,10 +1207,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0</v>
@@ -1188,10 +1225,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -1216,7 +1253,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -1225,13 +1262,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>0</v>
@@ -1267,20 +1304,20 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B83" s="15"/>
       <c r="F83" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C84" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
@@ -1307,10 +1344,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C85" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
@@ -1337,20 +1374,20 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B87" s="15"/>
       <c r="F87" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C88" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
@@ -1377,10 +1414,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C89" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
@@ -1407,10 +1444,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C90" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
@@ -1437,25 +1474,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D93" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>
@@ -1532,12 +1569,12 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="topLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
@@ -1599,8 +1636,8 @@
         <v>8</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
+      <c r="F6" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,8 +1738,8 @@
         <v>19</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+      <c r="F16" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,8 +1889,8 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="H28" s="6" t="s">
-        <v>9</v>
+      <c r="H28" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2207,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C71" s="0" t="n">
         <f aca="false">Step_1!C84</f>
@@ -2190,10 +2227,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C72" s="0" t="n">
         <f aca="false">Step_1!C85</f>
@@ -2220,7 +2257,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B74" s="12"/>
       <c r="E74" s="13"/>
@@ -2230,10 +2267,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C75" s="0" t="n">
         <f aca="false">Step_1!C88</f>
@@ -2250,10 +2287,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C76" s="0" t="n">
         <f aca="false">Step_1!C89</f>
@@ -2270,10 +2307,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C77" s="0" t="n">
         <f aca="false">Step_1!C90</f>
@@ -2300,7 +2337,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2309,13 +2346,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D80" s="0" t="n">
         <f aca="false">Step_1!D93</f>
@@ -2332,48 +2369,48 @@
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="n">
+    <row r="81" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="18" t="n">
         <f aca="false">$B40</f>
         <v>0.6</v>
       </c>
-      <c r="B82" s="18" t="n">
+      <c r="B82" s="19" t="n">
         <f aca="false">B62</f>
         <v>-3.33452058942817</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B83" s="15"/>
       <c r="F83" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C84" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
@@ -2400,10 +2437,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C85" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
@@ -2430,20 +2467,20 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B87" s="15"/>
       <c r="F87" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C88" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
@@ -2470,10 +2507,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C89" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
@@ -2500,10 +2537,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C90" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
@@ -2530,25 +2567,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D93" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>
@@ -2624,15 +2661,17 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J80" activeCellId="0" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,8 +2729,8 @@
         <v>8</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
+      <c r="F6" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,8 +2831,8 @@
         <v>19</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+      <c r="F16" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,8 +2982,8 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="H28" s="6" t="s">
-        <v>9</v>
+      <c r="H28" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,10 +3300,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C71" s="0" t="n">
         <f aca="false">Step_2!C84</f>
@@ -3281,10 +3320,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C72" s="0" t="n">
         <f aca="false">Step_2!C85</f>
@@ -3311,7 +3350,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B74" s="12"/>
       <c r="E74" s="13"/>
@@ -3321,10 +3360,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C75" s="0" t="n">
         <f aca="false">Step_2!C88</f>
@@ -3341,10 +3380,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C76" s="0" t="n">
         <f aca="false">Step_2!C89</f>
@@ -3361,10 +3400,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C77" s="0" t="n">
         <f aca="false">Step_2!C90</f>
@@ -3391,7 +3430,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3400,13 +3439,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D80" s="0" t="n">
         <f aca="false">Step_2!D93</f>
@@ -3445,20 +3484,20 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B83" s="15"/>
       <c r="F83" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C84" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B62)+$B$40*C71</f>
@@ -3485,10 +3524,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C85" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*B2*B63)+$B$40*C72</f>
@@ -3515,20 +3554,20 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B87" s="15"/>
       <c r="F87" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C88" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B53)+$B$40*C75</f>
@@ -3555,10 +3594,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C89" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B54)+$B$40*C76</f>
@@ -3585,10 +3624,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C90" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$C$12*B55)+$B$40*C77</f>
@@ -3615,25 +3654,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D93" s="0" t="n">
         <f aca="false">(1-$B$40)*-($B$39*$B$45*C23)+$B$40*D80</f>

--- a/step_by_step_mlp(inertia).xlsx
+++ b/step_by_step_mlp(inertia).xlsx
@@ -505,7 +505,7 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
@@ -2661,15 +2661,16 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J80" activeCellId="0" sqref="J80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
